--- a/result/report.xlsx
+++ b/result/report.xlsx
@@ -514,10 +514,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
